--- a/medicine/Pharmacie/Classe_ATC_A02/Classe_ATC_A02.xlsx
+++ b/medicine/Pharmacie/Classe_ATC_A02/Classe_ATC_A02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC A02, dénommée « Médicaments liés à des problèmes d'acidité », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QA02[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique A de la classification, intitulé « Système digestif et métabolisme ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC A02, dénommée « Médicaments liés à des problèmes d'acidité », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QA02. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique A de la classification, intitulé « Système digestif et métabolisme ».
 </t>
         </is>
       </c>
@@ -513,69 +525,212 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A02AA Dérivés du magnésium
-A02AA01 Carbonate de magnésium
+          <t>A02AA Dérivés du magnésium</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>A02AA01 Carbonate de magnésium
 A02AA02 Oxyde de magnésium
 A02AA03 Peroxyde de magnésium
 A02AA04 Hydroxyde de magnésium
 A02AA05 Silicate de magnésium
-A02AA10 Associations
-A02AB Dérivés de l'aluminium
-A02AB01 Hydroxyde d'aluminium
+A02AA10 Associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A02</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>A02A Anti-acides</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A02AB Dérivés de l'aluminium</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>A02AB01 Hydroxyde d'aluminium
 A02AB02 Algeldrate
 A02AB03 Phosphate d'aluminium
 A02AB04 Carbonate sodique dihydroxialuminique
 A02AB05 Acétoacétate d'aluminium
 A02AB06 Aloglutamol
 A02AB07 Glycinate d'aluminium
-A02AB10 Associations
-A02AC Dérivés du calcium
-A02AC01 Carbonate de calcium
+A02AB10 Associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A02</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>A02A Anti-acides</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A02AC Dérivés du calcium</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>A02AC01 Carbonate de calcium
 A02AC02 Silicate de calcium
-A02AC10 Associations
-A02AD Associations et dérivés complexes d'aluminium, de calcium et de magnésium
-A02AD01 Associations ordinaires de sels
+A02AC10 Associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>A02A Anti-acides</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>A02AD Associations et dérivés complexes d'aluminium, de calcium et de magnésium</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>A02AD01 Associations ordinaires de sels
 A02AD02 Magaldrate
 A02AD03 Almagate
 A02AD04 Hydrotalcite
-A02AD05 Almasilate
-A02AF Antacides et antiflatulents
-A02AF01 Magaldrate et antiflatulents
-A02AF02 Associations ordinaires de sels et antiflatulents
-A02AG Antacides et antispasmodiques
-A02AH Antacides et bicarbonate de sodium
-A02AX Antacides, autres associations</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Classe_ATC_A02</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A02</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+A02AD05 Almasilate</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A02</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>A02A Anti-acides</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>A02AF Antacides et antiflatulents</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>A02AF01 Magaldrate et antiflatulents
+A02AF02 Associations ordinaires de sels et antiflatulents</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A02</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>A02B Médicaments pour ulcère peptique et le reflux gastro-œsophagien</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>A02BA Antihistaminiques anti-H2
-A02BA01 Cimétidine
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>A02BA Antihistaminiques anti-H2</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>A02BA01 Cimétidine
 A02BA02 Ranitidine
 A02BA03 Famotidine
 A02BA04 Nizatidine
@@ -584,12 +739,80 @@
 A02BA07 Ranitidine bismuth citrate
 A02BA08 Lafutidine
 A02BA51 Cimétidine, associations
-A02BA53 Famotidine, associations
-A02BB Prostaglandines
-A02BB01 Misoprostol
-A02BB02 Enprostil
-A02BC Inhibiteurs de la pompe à protons
-A02BC01 Oméprazole
+A02BA53 Famotidine, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A02</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>A02B Médicaments pour ulcère peptique et le reflux gastro-œsophagien</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>A02BB Prostaglandines</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>A02BB01 Misoprostol
+A02BB02 Enprostil</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>A02B Médicaments pour ulcère peptique et le reflux gastro-œsophagien</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>A02BC Inhibiteurs de la pompe à protons</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>A02BC01 Oméprazole
 A02BC02 Pantoprazole
 A02BC03 Lansoprazole
 A02BC04 Rabéprazole
@@ -597,9 +820,43 @@
 A02BC06 Dexlansoprazole
 A02BC07 Dexrabéprazole
 A02BC53 Lansoprazole, associations
-A02BC54 Rabéprazole, associations
-A02BD Associations pour l'éradication du Helicobacter pylori
-A02BD01 Oméprazole, amoxicilline et métronidazole
+A02BC54 Rabéprazole, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A02</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>A02B Médicaments pour ulcère peptique et le reflux gastro-œsophagien</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>A02BD Associations pour l'éradication du Helicobacter pylori</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>A02BD01 Oméprazole, amoxicilline et métronidazole
 A02BD02 Lansoprazole, tétracycline et métronidazole
 A02BD03 Lansoprazole, amoxicilline et métronidazole
 A02BD04 Pantoprazole, amoxicilline et clarithromycine
@@ -609,9 +866,43 @@
 A02BD08 Subcitrate de bismuth, tétracycline et métronidazole
 A02BD09 Lansoprazole, clarithromycine et tinidazole
 A02BD10 Lansoprazole, amoxicilline et Lévofloxacine
-A02BD11 Pantoprazole, amoxicilline, clarithromycine et métronidazole
-A02BX Autres médicaments en cas d'ulcère peptique et de reflux gastro-œsophageal (en anglais : GORD)
-A02BX01 Carbénoxolone
+A02BD11 Pantoprazole, amoxicilline, clarithromycine et métronidazole</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A02</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>A02B Médicaments pour ulcère peptique et le reflux gastro-œsophagien</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>A02BX Autres médicaments en cas d'ulcère peptique et de reflux gastro-œsophageal (en anglais : GORD)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>A02BX01 Carbénoxolone
 A02BX02 Sucralfate
 A02BX03 Pirenzépine
 A02BX04 Chlorure de méthiosulfonium
@@ -631,31 +922,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Classe_ATC_A02</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A02</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A02</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>A02X Autres médicaments liés à des problèmes d'acidité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Vide 
 </t>
